--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220509_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220509_110400.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-05-09</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220509_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220509_110400.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -700,7 +700,7 @@
     <t>MORE VISION</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>꿈의엔진</t>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>플렉스엠</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>BRAVE</t>
@@ -1197,7 +1194,7 @@
         <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1275,7 +1272,7 @@
         <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1301,7 +1298,7 @@
         <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1327,7 +1324,7 @@
         <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1353,7 +1350,7 @@
         <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1405,7 +1402,7 @@
         <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1457,7 +1454,7 @@
         <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1483,7 +1480,7 @@
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1509,7 +1506,7 @@
         <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1535,7 +1532,7 @@
         <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1561,7 +1558,7 @@
         <v>219</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1613,7 +1610,7 @@
         <v>224</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1639,7 +1636,7 @@
         <v>229</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1665,7 +1662,7 @@
         <v>230</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1691,7 +1688,7 @@
         <v>224</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1717,7 +1714,7 @@
         <v>231</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1743,7 +1740,7 @@
         <v>224</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1769,7 +1766,7 @@
         <v>224</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1795,7 +1792,7 @@
         <v>224</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1847,7 +1844,7 @@
         <v>232</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1873,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1899,7 +1896,7 @@
         <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1925,7 +1922,7 @@
         <v>224</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1951,7 +1948,7 @@
         <v>224</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1977,7 +1974,7 @@
         <v>224</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2003,7 +2000,7 @@
         <v>222</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2029,7 +2026,7 @@
         <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2055,7 +2052,7 @@
         <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2081,7 +2078,7 @@
         <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2107,7 +2104,7 @@
         <v>236</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2133,7 +2130,7 @@
         <v>237</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2159,7 +2156,7 @@
         <v>238</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2185,7 +2182,7 @@
         <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2211,7 +2208,7 @@
         <v>233</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2237,7 +2234,7 @@
         <v>239</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2263,7 +2260,7 @@
         <v>240</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2419,7 +2416,7 @@
         <v>240</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2445,7 +2442,7 @@
         <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2471,7 +2468,7 @@
         <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2523,7 +2520,7 @@
         <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2601,7 +2598,7 @@
         <v>228</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2627,7 +2624,7 @@
         <v>240</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2653,7 +2650,7 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2679,7 +2676,7 @@
         <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2731,7 +2728,7 @@
         <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2757,7 +2754,7 @@
         <v>245</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2783,7 +2780,7 @@
         <v>240</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2809,7 +2806,7 @@
         <v>230</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2835,7 +2832,7 @@
         <v>246</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2861,7 +2858,7 @@
         <v>228</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2887,7 +2884,7 @@
         <v>219</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2939,7 +2936,7 @@
         <v>247</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2965,7 +2962,7 @@
         <v>233</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3017,7 +3014,7 @@
         <v>248</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3043,7 +3040,7 @@
         <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3069,7 +3066,7 @@
         <v>240</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3095,7 +3092,7 @@
         <v>233</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3121,7 +3118,7 @@
         <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3147,7 +3144,7 @@
         <v>229</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3199,7 +3196,7 @@
         <v>250</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3225,7 +3222,7 @@
         <v>240</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3251,7 +3248,7 @@
         <v>251</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3277,7 +3274,7 @@
         <v>223</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3355,7 +3352,7 @@
         <v>249</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3378,10 +3375,10 @@
         <v>206</v>
       </c>
       <c r="G86" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3407,7 +3404,7 @@
         <v>233</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3433,7 +3430,7 @@
         <v>247</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3459,7 +3456,7 @@
         <v>223</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3482,10 +3479,10 @@
         <v>209</v>
       </c>
       <c r="G90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3511,7 +3508,7 @@
         <v>228</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3537,7 +3534,7 @@
         <v>219</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3612,10 +3609,10 @@
         <v>213</v>
       </c>
       <c r="G95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3664,10 +3661,10 @@
         <v>215</v>
       </c>
       <c r="G97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3768,10 +3765,10 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
